--- a/expression_data/abl1-construct/abl1-constructs-with-boundaries.xlsx
+++ b/expression_data/abl1-construct/abl1-constructs-with-boundaries.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28705"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-20" windowWidth="51200" windowHeight="27320"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Abl1_constructs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,16 +21,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>N Terminus</t>
+    <t xml:space="preserve">concentration (ug/ml) </t>
   </si>
   <si>
-    <t>C Terminus</t>
+    <t xml:space="preserve">yield per ml culture (ug/ml) </t>
   </si>
   <si>
-    <t>concentration</t>
+    <t xml:space="preserve">C Terminus boundary </t>
   </si>
   <si>
-    <t>yield</t>
+    <t>N Terminal boundary</t>
   </si>
 </sst>
 </file>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -449,16 +449,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -472,7 +472,7 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <f>C2*80/900</f>
+        <f t="shared" ref="D2:D11" si="0">C2*80/900</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
@@ -487,7 +487,7 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <f>C3*80/900</f>
+        <f t="shared" si="0"/>
         <v>2.0444444444444443</v>
       </c>
     </row>
@@ -502,7 +502,7 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <f>C4*80/900</f>
+        <f t="shared" si="0"/>
         <v>1.9555555555555555</v>
       </c>
     </row>
@@ -517,7 +517,7 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <f>C5*80/900</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
     </row>
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <f>C6*80/900</f>
+        <f t="shared" si="0"/>
         <v>0.71111111111111114</v>
       </c>
     </row>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <f>C7*80/900</f>
+        <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
     </row>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f>C8*80/900</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <f>C9*80/900</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <f>C10*80/900</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -607,7 +607,7 @@
         <v>47</v>
       </c>
       <c r="D11">
-        <f>C11*80/900</f>
+        <f t="shared" si="0"/>
         <v>4.177777777777778</v>
       </c>
     </row>
@@ -650,7 +650,7 @@
         <v>22</v>
       </c>
       <c r="D14">
-        <f>C14*80/900</f>
+        <f t="shared" ref="D14:D45" si="1">C14*80/900</f>
         <v>1.9555555555555555</v>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <f>C15*80/900</f>
+        <f t="shared" si="1"/>
         <v>1.2444444444444445</v>
       </c>
     </row>
@@ -680,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="D16">
-        <f>C16*80/900</f>
+        <f t="shared" si="1"/>
         <v>0.97777777777777775</v>
       </c>
     </row>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <f>C17*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <f>C18*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <f>C19*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -740,7 +740,7 @@
         <v>49</v>
       </c>
       <c r="D20">
-        <f>C20*80/900</f>
+        <f t="shared" si="1"/>
         <v>4.3555555555555552</v>
       </c>
     </row>
@@ -755,7 +755,7 @@
         <v>46</v>
       </c>
       <c r="D21">
-        <f>C21*80/900</f>
+        <f t="shared" si="1"/>
         <v>4.0888888888888886</v>
       </c>
     </row>
@@ -770,7 +770,7 @@
         <v>36</v>
       </c>
       <c r="D22">
-        <f>C22*80/900</f>
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
     </row>
@@ -785,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <f>C23*80/900</f>
+        <f t="shared" si="1"/>
         <v>1.9555555555555555</v>
       </c>
     </row>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D24">
-        <f>C24*80/900</f>
+        <f t="shared" si="1"/>
         <v>0.71111111111111114</v>
       </c>
     </row>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <f>C25*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <f>C26*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <f>C27*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <f>C28*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <f>C29*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <f>C30*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <f>C31*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <f>C32*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <f>C33*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <f>C34*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <f>C35*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <f>C36*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <f>C37*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <f>C38*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <f>C39*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <f>C40*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <f>C41*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <f>C42*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <f>C43*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <f>C44*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <f>C45*80/900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <f>C46*80/900</f>
+        <f t="shared" ref="D46:D77" si="2">C46*80/900</f>
         <v>0</v>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <f>C47*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <f>C48*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <f>C49*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <f>C50*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <f>C51*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <f>C52*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <f>C53*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <f>C54*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <f>C55*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="D56">
-        <f>C56*80/900</f>
+        <f t="shared" si="2"/>
         <v>0.35555555555555557</v>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <f>C57*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <f>C58*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <f>C59*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <f>C60*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <f>C61*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <f>C62*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <f>C63*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <f>C64*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <f>C65*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <f>C66*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <f>C67*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <f>C68*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <f>C69*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <f>C70*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <f>C71*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <f>C72*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <f>C73*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <f>C74*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <f>C75*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <f>C76*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <f>C77*80/900</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <f>C78*80/900</f>
+        <f t="shared" ref="D78:D109" si="3">C78*80/900</f>
         <v>0</v>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <f>C79*80/900</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <f>C80*80/900</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <f>C81*80/900</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <f>C82*80/900</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
